--- a/stock_historical_data/1d/BSE.NS.xlsx
+++ b/stock_historical_data/1d/BSE.NS.xlsx
@@ -101773,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BSE.NS.xlsx
+++ b/stock_historical_data/1d/BSE.NS.xlsx
@@ -102053,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102107,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102161,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102215,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102269,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BSE.NS.xlsx
+++ b/stock_historical_data/1d/BSE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1818"/>
+  <dimension ref="A1:R1819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102281,6 +102281,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>2760</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>2764.60009765625</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>2725</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>2738.35009765625</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>2738.35009765625</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>468139</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/BSE.NS.xlsx
+++ b/stock_historical_data/1d/BSE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1819"/>
+  <dimension ref="A1:R1820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101821,7 +101821,7 @@
         <v>23</v>
       </c>
       <c r="O1810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1810" t="n">
         <v>0</v>
@@ -102333,7 +102333,63 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>2738</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>2738</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>2700</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>2709.25</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>2709.25</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>432073</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BSE.NS.xlsx
+++ b/stock_historical_data/1d/BSE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1820"/>
+  <dimension ref="A1:R1827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102389,7 +102389,387 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>2720</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>2720</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>2592</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>2639.449951171875</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>2639.449951171875</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>818172</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>2641</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>2670</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>2547</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>2560.199951171875</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>2560.199951171875</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>748696</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>2550</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>2497.949951171875</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>2497.949951171875</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>963273</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>2545</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>2520.550048828125</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>2520.550048828125</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>453837</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>2532</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>2556.050048828125</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>2501</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>2541.10009765625</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>2541.10009765625</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>538178</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>2565</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>2525</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>2553.800048828125</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>2553.800048828125</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>583469</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>2581</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>2642.699951171875</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>2560.050048828125</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>2582.550048828125</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>2582.550048828125</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>1099537</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BSE.NS.xlsx
+++ b/stock_historical_data/1d/BSE.NS.xlsx
@@ -102445,7 +102445,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102499,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102553,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102607,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102661,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102715,7 +102725,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102769,7 +102781,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BSE.NS.xlsx
+++ b/stock_historical_data/1d/BSE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1827"/>
+  <dimension ref="A1:R1832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102785,6 +102785,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>2619.75</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>2570.050048828125</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>2574.10009765625</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>2574.10009765625</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>583442</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>2560</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>2560</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>2483</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>2487.10009765625</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>2487.10009765625</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>1079501</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>2495</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>2509.5</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>2447</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>2457.75</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>2457.75</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>728280</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>2458</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>2454</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>2457.35009765625</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>2457.35009765625</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>538942</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>2468</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>2468.60009765625</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>2395</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>2405.35009765625</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>2405.35009765625</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>835297</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/BSE.NS.xlsx
+++ b/stock_historical_data/1d/BSE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1832"/>
+  <dimension ref="A1:R1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102837,7 +102837,9 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -102891,7 +102893,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102945,7 +102949,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -102999,7 +103005,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -103053,7 +103061,495 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>2410</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>2420</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>2356</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>2380.35009765625</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>2380.35009765625</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>596342</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>2390</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>2453.949951171875</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>2328</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>2336.60009765625</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>2336.60009765625</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>1166229</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>2331</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>2245</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>2254.25</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>2254.25</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>2301227</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>2272</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>2388</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>2332.550048828125</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>2332.550048828125</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>2347668</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>2362.25</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>2385</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>2338.300048828125</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>2363.800048828125</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>2363.800048828125</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>618662</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>2380</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>2389</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>2330</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>2371.25</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>2371.25</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>662301</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>2370</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>2404.550048828125</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>2365</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>2371.39990234375</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>2371.39990234375</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>409094</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>2365</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>2366.89990234375</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>2284</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>2300.39990234375</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>2300.39990234375</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>753728</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>2286</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>2290.39990234375</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>2245.800048828125</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>2252.75</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>2252.75</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>567530</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
